--- a/WEB_clustering/df/input.xlsx
+++ b/WEB_clustering/df/input.xlsx
@@ -426,13 +426,13 @@
         <v>3.569595763877377</v>
       </c>
       <c r="D2">
-        <v>0.01835806784359934</v>
+        <v>0.02188249590042673</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,13 +446,13 @@
         <v>3.913840036167455</v>
       </c>
       <c r="D3">
-        <v>0.02127381885094435</v>
+        <v>0.02580616725203028</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,13 +466,13 @@
         <v>4.227045076180639</v>
       </c>
       <c r="D4">
-        <v>0.02743680061402757</v>
+        <v>0.03256772150319182</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,13 +486,13 @@
         <v>4.240733487720779</v>
       </c>
       <c r="D5">
-        <v>0.02977236897215481</v>
+        <v>0.03493765609989932</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,13 +506,13 @@
         <v>4.569126020348486</v>
       </c>
       <c r="D6">
-        <v>0.03208326691975938</v>
+        <v>0.03805173724761677</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,13 +526,13 @@
         <v>5.048032381995343</v>
       </c>
       <c r="D7">
-        <v>0.03501394417298144</v>
+        <v>0.04306201560007275</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,13 +546,13 @@
         <v>5.440036094971805</v>
       </c>
       <c r="D8">
-        <v>0.0493406922212889</v>
+        <v>0.06020633724970893</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,13 +566,13 @@
         <v>5.658974668764164</v>
       </c>
       <c r="D9">
-        <v>0.07217548256712335</v>
+        <v>0.0849078184976947</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,13 +586,13 @@
         <v>5.66522465112112</v>
       </c>
       <c r="D10">
-        <v>0.07228148147231876</v>
+        <v>0.08511730690580846</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,13 +606,13 @@
         <v>6.321213466193557</v>
       </c>
       <c r="D11">
-        <v>0.0731638592942941</v>
+        <v>0.0852833362739684</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,13 +626,13 @@
         <v>6.8025607283656</v>
       </c>
       <c r="D12">
-        <v>0.04549865831483352</v>
+        <v>0.05506996927685565</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,13 +646,13 @@
         <v>6.866352380965888</v>
       </c>
       <c r="D13">
-        <v>0.04385216008175039</v>
+        <v>0.05300893214729015</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,13 +666,13 @@
         <v>7.220053297706126</v>
       </c>
       <c r="D14">
-        <v>0.02819558833527497</v>
+        <v>0.03498358038644281</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,13 +686,13 @@
         <v>7.699224610118492</v>
       </c>
       <c r="D15">
-        <v>0.02480190823376221</v>
+        <v>0.02974895518178398</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,13 +706,13 @@
         <v>7.834932897938827</v>
       </c>
       <c r="D16">
-        <v>0.02292580101160552</v>
+        <v>0.0275193890185035</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,13 +726,13 @@
         <v>8.510241118075212</v>
       </c>
       <c r="D17">
-        <v>0.02184818497054827</v>
+        <v>0.02502816444487732</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,13 +746,13 @@
         <v>8.594867327326329</v>
       </c>
       <c r="D18">
-        <v>0.02209676163187559</v>
+        <v>0.0248805170502931</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,13 +766,13 @@
         <v>6.02564121777282</v>
       </c>
       <c r="D19">
-        <v>0.02647697249780331</v>
+        <v>0.03048089267725414</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,13 +786,13 @@
         <v>6.002042274891434</v>
       </c>
       <c r="D20">
-        <v>0.0307711275996029</v>
+        <v>0.03551764352948536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,13 +806,13 @@
         <v>6.0006911556508</v>
       </c>
       <c r="D21">
-        <v>0.02801035660206443</v>
+        <v>0.03206844078319614</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,13 +826,13 @@
         <v>6.021516450771803</v>
       </c>
       <c r="D22">
-        <v>0.030495821767011</v>
+        <v>0.03596135981835922</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,13 +846,13 @@
         <v>5.862834471762671</v>
       </c>
       <c r="D23">
-        <v>0.027888052573443</v>
+        <v>0.03356252740292362</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,13 +866,13 @@
         <v>6.130253128704211</v>
       </c>
       <c r="D24">
-        <v>0.02873643527477541</v>
+        <v>0.03534627530641221</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,13 +886,13 @@
         <v>5.814186593332554</v>
       </c>
       <c r="D25">
-        <v>0.02692112099315072</v>
+        <v>0.03330704256986795</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,13 +906,13 @@
         <v>6.200222853266772</v>
       </c>
       <c r="D26">
-        <v>0.03494715534407983</v>
+        <v>0.04353839655790962</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,13 +926,13 @@
         <v>5.775954602869708</v>
       </c>
       <c r="D27">
-        <v>0.05728559074262721</v>
+        <v>0.06805877425127614</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,13 +946,13 @@
         <v>5.906702000605794</v>
       </c>
       <c r="D28">
-        <v>0.0546070079144266</v>
+        <v>0.06546033219921256</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,13 +966,13 @@
         <v>5.862421473557736</v>
       </c>
       <c r="D29">
-        <v>0.08341471318011291</v>
+        <v>0.09720393979665176</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,13 +986,13 @@
         <v>5.814151081125069</v>
       </c>
       <c r="D30">
-        <v>0.08127737369404545</v>
+        <v>0.09483886458743261</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,13 +1006,13 @@
         <v>5.818419140014615</v>
       </c>
       <c r="D31">
-        <v>0.07660121445847577</v>
+        <v>0.08998367441096131</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,13 +1026,13 @@
         <v>5.832394163778745</v>
       </c>
       <c r="D32">
-        <v>0.06344901096227978</v>
+        <v>0.07591316218474979</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,7 +1046,7 @@
         <v>6.26437678307131</v>
       </c>
       <c r="D33">
-        <v>0.04122774960383985</v>
+        <v>0.05126974925549042</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>5.808386997543463</v>
       </c>
       <c r="D34">
-        <v>0.03464390560355972</v>
+        <v>0.04201531055838605</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>5.399973776827735</v>
       </c>
       <c r="D35">
-        <v>0.02568532365775834</v>
+        <v>0.03089219802699124</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>5.720505746837982</v>
       </c>
       <c r="D36">
-        <v>0.02689867289210782</v>
+        <v>0.0329735148579775</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>5.843092303906659</v>
       </c>
       <c r="D37">
-        <v>0.02447911003624215</v>
+        <v>0.02980577495025875</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>6.077663213822324</v>
       </c>
       <c r="D38">
-        <v>0.02131606510328</v>
+        <v>0.02573589593544478</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>6.009614912244192</v>
       </c>
       <c r="D39">
-        <v>0.02228997039386375</v>
+        <v>0.02630772200486155</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>6.031711183111945</v>
       </c>
       <c r="D40">
-        <v>0.02194228649007936</v>
+        <v>0.02552544334026043</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>5.511550460233361</v>
       </c>
       <c r="D41">
-        <v>0.01451552013727933</v>
+        <v>0.01737043126055631</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>3.303746114616107</v>
       </c>
       <c r="D42">
-        <v>0.01476591679878211</v>
+        <v>0.01750753418593772</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,13 +1246,13 @@
         <v>2.942492018178958</v>
       </c>
       <c r="D43">
-        <v>0.01434489946845352</v>
+        <v>0.01710879481807987</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,13 +1266,13 @@
         <v>2.62730545305384</v>
       </c>
       <c r="D44">
-        <v>0.0184350664146934</v>
+        <v>0.02186715900270572</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,13 +1286,13 @@
         <v>2.384556803776154</v>
       </c>
       <c r="D45">
-        <v>0.01984753009386687</v>
+        <v>0.02344090541404937</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,13 +1306,13 @@
         <v>1.874391794085496</v>
       </c>
       <c r="D46">
-        <v>0.01759856778939577</v>
+        <v>0.02135297190611478</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,13 +1326,13 @@
         <v>1.607548429146548</v>
       </c>
       <c r="D47">
-        <v>0.01878725438306315</v>
+        <v>0.02294971889954102</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,13 +1346,13 @@
         <v>0.8769871888125773</v>
       </c>
       <c r="D48">
-        <v>0.03015378340277805</v>
+        <v>0.03683256390905579</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,13 +1366,13 @@
         <v>1.060515482972673</v>
       </c>
       <c r="D49">
-        <v>0.02852786533548548</v>
+        <v>0.03446078587803247</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,13 +1386,13 @@
         <v>0.4339907918061</v>
       </c>
       <c r="D50">
-        <v>0.04593961286923521</v>
+        <v>0.05425500049395551</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,13 +1406,13 @@
         <v>0.1848223886008166</v>
       </c>
       <c r="D51">
-        <v>0.0584294248255433</v>
+        <v>0.06842467823034445</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,13 +1426,13 @@
         <v>0.08888385672317305</v>
       </c>
       <c r="D52">
-        <v>0.05727765071194203</v>
+        <v>0.06666747857557119</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,13 +1446,13 @@
         <v>-0.5813991750114729</v>
       </c>
       <c r="D53">
-        <v>0.0267342338028374</v>
+        <v>0.03315324209437353</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,13 +1466,13 @@
         <v>-0.5659615276753883</v>
       </c>
       <c r="D54">
-        <v>0.02698797709079164</v>
+        <v>0.03301092340196668</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,13 +1486,13 @@
         <v>-0.9764159061346364</v>
       </c>
       <c r="D55">
-        <v>0.02366842189087765</v>
+        <v>0.02876836065168257</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,13 +1506,13 @@
         <v>-1.277184881614778</v>
       </c>
       <c r="D56">
-        <v>0.02040872141778906</v>
+        <v>0.02487608698353676</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,13 +1526,13 @@
         <v>-1.626455215018398</v>
       </c>
       <c r="D57">
-        <v>0.01927309946093685</v>
+        <v>0.02302196167996376</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1546,13 +1546,13 @@
         <v>-1.856700584063094</v>
       </c>
       <c r="D58">
-        <v>0.01660497006961398</v>
+        <v>0.01997791089759643</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1566,13 +1566,13 @@
         <v>-2.249031460845413</v>
       </c>
       <c r="D59">
-        <v>0.01767385930440474</v>
+        <v>0.02070045239154794</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1586,13 +1586,13 @@
         <v>-2.800846330754485</v>
       </c>
       <c r="D60">
-        <v>0.01803196554112448</v>
+        <v>0.02056758089187894</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1606,13 +1606,13 @@
         <v>-3.296787901993778</v>
       </c>
       <c r="D61">
-        <v>0.0125584646301182</v>
+        <v>0.0146913320868408</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1626,13 +1626,13 @@
         <v>-3.662390002074604</v>
       </c>
       <c r="D62">
-        <v>0.009763261302488307</v>
+        <v>0.01122775114477206</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1646,13 +1646,13 @@
         <v>-3.290803699286601</v>
       </c>
       <c r="D63">
-        <v>0.01411621387680152</v>
+        <v>0.01624739708167668</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1666,13 +1666,13 @@
         <v>-3.220531573521166</v>
       </c>
       <c r="D64">
-        <v>0.01458013685017219</v>
+        <v>0.01707328462017206</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1686,13 +1686,13 @@
         <v>-2.668092410489383</v>
       </c>
       <c r="D65">
-        <v>0.01781767976358481</v>
+        <v>0.02089314183441736</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1706,13 +1706,13 @@
         <v>-2.604614900235477</v>
       </c>
       <c r="D66">
-        <v>0.01545169350905493</v>
+        <v>0.0184065100249046</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1726,13 +1726,13 @@
         <v>-2.274808405257965</v>
       </c>
       <c r="D67">
-        <v>0.02073738514190177</v>
+        <v>0.0238692366363611</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1746,13 +1746,13 @@
         <v>-1.513645043296089</v>
       </c>
       <c r="D68">
-        <v>0.01858672673761881</v>
+        <v>0.02176110562836627</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1766,13 +1766,13 @@
         <v>-1.185831791463005</v>
       </c>
       <c r="D69">
-        <v>0.0213541001768186</v>
+        <v>0.0258811939447161</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1786,13 +1786,13 @@
         <v>-0.9757790979568307</v>
       </c>
       <c r="D70">
-        <v>0.02424051440302145</v>
+        <v>0.02938613445338726</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1806,13 +1806,13 @@
         <v>-0.6495279280585827</v>
       </c>
       <c r="D71">
-        <v>0.02878201972434244</v>
+        <v>0.03462702199512345</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1826,13 +1826,13 @@
         <v>-0.06730330674324392</v>
       </c>
       <c r="D72">
-        <v>0.03314070561433009</v>
+        <v>0.04050850029404614</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1846,13 +1846,13 @@
         <v>0.1872276346536312</v>
       </c>
       <c r="D73">
-        <v>0.05025838238472691</v>
+        <v>0.06027760334246803</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1866,13 +1866,13 @@
         <v>0.3454633554080046</v>
       </c>
       <c r="D74">
-        <v>0.05837294816521488</v>
+        <v>0.06881499106397393</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1886,13 +1886,13 @@
         <v>0.2395854604978739</v>
       </c>
       <c r="D75">
-        <v>0.04478546880742275</v>
+        <v>0.05418207811451752</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1906,13 +1906,13 @@
         <v>1.466711316297413</v>
       </c>
       <c r="D76">
-        <v>0.02553300513785177</v>
+        <v>0.03103106306154554</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1926,13 +1926,13 @@
         <v>1.260722085450652</v>
       </c>
       <c r="D77">
-        <v>0.02683780078410333</v>
+        <v>0.03273606150761732</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1946,13 +1946,13 @@
         <v>1.299757249838742</v>
       </c>
       <c r="D78">
-        <v>0.02527045307942433</v>
+        <v>0.03015298571988747</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1966,13 +1966,13 @@
         <v>1.712956380562813</v>
       </c>
       <c r="D79">
-        <v>0.01744033700646925</v>
+        <v>0.02131182353175048</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1986,13 +1986,13 @@
         <v>2.286268106666519</v>
       </c>
       <c r="D80">
-        <v>0.0161399999449</v>
+        <v>0.01926794397260042</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2006,13 +2006,13 @@
         <v>2.621675284563508</v>
       </c>
       <c r="D81">
-        <v>0.01539469871240663</v>
+        <v>0.01838555872984213</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2026,13 +2026,13 @@
         <v>3.13614858512879</v>
       </c>
       <c r="D82">
-        <v>0.0187796121181664</v>
+        <v>0.02127853255849608</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2046,13 +2046,13 @@
         <v>3.478281337337671</v>
       </c>
       <c r="D83">
-        <v>0.01526295084452283</v>
+        <v>0.01740112927278414</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2066,13 +2066,13 @@
         <v>6.116169481284664</v>
       </c>
       <c r="D84">
-        <v>0.08540472625813984</v>
+        <v>0.0993996194637792</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2086,13 +2086,13 @@
         <v>5.71672346530833</v>
       </c>
       <c r="D85">
-        <v>0.05676530445350336</v>
+        <v>0.06764906379730705</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2106,13 +2106,13 @@
         <v>6.308816229088304</v>
       </c>
       <c r="D86">
-        <v>0.07894922951369238</v>
+        <v>0.09125592982102987</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>6.974593202635307</v>
       </c>
       <c r="D87">
-        <v>0.01995655809581001</v>
+        <v>0.02470809955708029</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>6.165536142629782</v>
       </c>
       <c r="D88">
-        <v>0.06276653003675713</v>
+        <v>0.07536600699930937</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>6.290693429255596</v>
       </c>
       <c r="D89">
-        <v>0.08018034319957151</v>
+        <v>0.0933921669510893</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2186,13 +2186,13 @@
         <v>5.779740560693152</v>
       </c>
       <c r="D90">
-        <v>0.06464380964333978</v>
+        <v>0.07688590544383363</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2206,13 +2206,13 @@
         <v>5.447933590465387</v>
       </c>
       <c r="D91">
-        <v>0.05441992570040649</v>
+        <v>0.06590602084926912</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2226,13 +2226,13 @@
         <v>6.023477672474757</v>
       </c>
       <c r="D92">
-        <v>0.07984464199528554</v>
+        <v>0.09398491355877701</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2246,13 +2246,13 @@
         <v>6.726658121973334</v>
       </c>
       <c r="D93">
-        <v>0.04956322192637549</v>
+        <v>0.05993401052936858</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2266,13 +2266,13 @@
         <v>0.5046708492094696</v>
       </c>
       <c r="D94">
-        <v>0.04530435979245798</v>
+        <v>0.05380259707270939</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2286,13 +2286,13 @@
         <v>-0.6596330427930609</v>
       </c>
       <c r="D95">
-        <v>0.03190744377138387</v>
+        <v>0.03848130630570114</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2306,13 +2306,13 @@
         <v>1.009228195681671</v>
       </c>
       <c r="D96">
-        <v>0.02293671149391843</v>
+        <v>0.02756655833918881</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2326,13 +2326,13 @@
         <v>-1.169527773679463</v>
       </c>
       <c r="D97">
-        <v>0.02409226597950315</v>
+        <v>0.02887289542089893</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2346,13 +2346,13 @@
         <v>-1.113074639864275</v>
       </c>
       <c r="D98">
-        <v>0.02536818060432562</v>
+        <v>0.03041095501386222</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2366,13 +2366,13 @@
         <v>-0.7537975638440878</v>
       </c>
       <c r="D99">
-        <v>0.03092772443616196</v>
+        <v>0.03720877759075347</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2386,13 +2386,13 @@
         <v>1.045056071145027</v>
       </c>
       <c r="D100">
-        <v>0.03159715570626399</v>
+        <v>0.0391120722567057</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2406,13 +2406,13 @@
         <v>0.5973551665931056</v>
       </c>
       <c r="D101">
-        <v>0.05264419961201921</v>
+        <v>0.0621469281138471</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2426,13 +2426,13 @@
         <v>0.7962482174555086</v>
       </c>
       <c r="D102">
-        <v>0.044896084489461</v>
+        <v>0.05346101430546493</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2446,13 +2446,13 @@
         <v>-0.2993705312807426</v>
       </c>
       <c r="D103">
-        <v>0.02754440672778108</v>
+        <v>0.03285167206457854</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2466,13 +2466,13 @@
         <v>0.3197802307043743</v>
       </c>
       <c r="D104">
-        <v>0.03892723199924721</v>
+        <v>0.04703073282912452</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2486,13 +2486,13 @@
         <v>3.449324829656031</v>
       </c>
       <c r="D105">
-        <v>0.01455147745536203</v>
+        <v>0.01748391797258339</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2506,13 +2506,13 @@
         <v>3.695604982471647</v>
       </c>
       <c r="D106">
-        <v>0.01848820217146875</v>
+        <v>0.02217116338793575</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2526,13 +2526,13 @@
         <v>4.350243438692248</v>
       </c>
       <c r="D107">
-        <v>0.03134498472870054</v>
+        <v>0.03685772624885857</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2546,13 +2546,13 @@
         <v>4.527139671454182</v>
       </c>
       <c r="D108">
-        <v>0.03312492888246105</v>
+        <v>0.03897822297902984</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2566,13 +2566,13 @@
         <v>5.21162167228117</v>
       </c>
       <c r="D109">
-        <v>0.04223347062479627</v>
+        <v>0.05171825617725174</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2586,13 +2586,13 @@
         <v>4.726190206844133</v>
       </c>
       <c r="D110">
-        <v>0.03196547992217476</v>
+        <v>0.03894791996200715</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2606,13 +2606,13 @@
         <v>5.049123431550293</v>
       </c>
       <c r="D111">
-        <v>0.03780518053213981</v>
+        <v>0.0460663158706931</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2626,13 +2626,13 @@
         <v>5.812541957964176</v>
       </c>
       <c r="D112">
-        <v>0.07522455806582889</v>
+        <v>0.08845736301782706</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2646,13 +2646,13 @@
         <v>6.466872862449272</v>
       </c>
       <c r="D113">
-        <v>0.06815727729185452</v>
+        <v>0.08033784681816686</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2666,13 +2666,13 @@
         <v>6.002779844590122</v>
       </c>
       <c r="D114">
-        <v>0.08529377961086944</v>
+        <v>0.09958769445330387</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2686,13 +2686,13 @@
         <v>6.82700626857238</v>
       </c>
       <c r="D115">
-        <v>0.04595335177616637</v>
+        <v>0.05546376601447004</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2706,13 +2706,13 @@
         <v>6.716739527337306</v>
       </c>
       <c r="D116">
-        <v>0.03806100080306377</v>
+        <v>0.04732532111547225</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2726,13 +2726,13 @@
         <v>7.043327139006948</v>
       </c>
       <c r="D117">
-        <v>0.03572112785026416</v>
+        <v>0.04381846254556158</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2746,13 +2746,13 @@
         <v>7.87439241800466</v>
       </c>
       <c r="D118">
-        <v>0.02395612689976212</v>
+        <v>0.02851004031576325</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2766,13 +2766,13 @@
         <v>8.161932845132014</v>
       </c>
       <c r="D119">
-        <v>0.01919404641076809</v>
+        <v>0.02321810865907443</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2786,13 +2786,13 @@
         <v>8.639933378967028</v>
       </c>
       <c r="D120">
-        <v>0.02113178350143989</v>
+        <v>0.02393636035017709</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2806,13 +2806,13 @@
         <v>9.100605253762039</v>
       </c>
       <c r="D121">
-        <v>0.01231587777511959</v>
+        <v>0.01456213659942352</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2826,13 +2826,13 @@
         <v>6.35110333851827</v>
       </c>
       <c r="D122">
-        <v>0.01403719961081186</v>
+        <v>0.01682664972296173</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2846,13 +2846,13 @@
         <v>5.856441969228628</v>
       </c>
       <c r="D123">
-        <v>0.02772354275472127</v>
+        <v>0.0325297715674689</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2866,13 +2866,13 @@
         <v>6.268899281707078</v>
       </c>
       <c r="D124">
-        <v>0.02550468153151311</v>
+        <v>0.03021756828741983</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2886,13 +2886,13 @@
         <v>6.300759783170415</v>
       </c>
       <c r="D125">
-        <v>0.02556667062687662</v>
+        <v>0.03067762429018117</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2906,13 +2906,13 @@
         <v>6.033257641874576</v>
       </c>
       <c r="D126">
-        <v>0.02957839343402462</v>
+        <v>0.03513681387669725</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2926,13 +2926,13 @@
         <v>5.550797066423691</v>
       </c>
       <c r="D127">
-        <v>0.02210461204625082</v>
+        <v>0.02714632201247758</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2946,13 +2946,13 @@
         <v>6.359696898115928</v>
       </c>
       <c r="D128">
-        <v>0.02794998937295118</v>
+        <v>0.0345010312923454</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2966,13 +2966,13 @@
         <v>6.768262715090043</v>
       </c>
       <c r="D129">
-        <v>0.02548541660887783</v>
+        <v>0.03187511006132841</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2986,13 +2986,13 @@
         <v>5.959656221183827</v>
       </c>
       <c r="D130">
-        <v>0.06556625378036243</v>
+        <v>0.0774964655389756</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3006,13 +3006,13 @@
         <v>6.191620956091507</v>
       </c>
       <c r="D131">
-        <v>0.08086723058626871</v>
+        <v>0.09493389552737866</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3026,13 +3026,13 @@
         <v>6.109509001095009</v>
       </c>
       <c r="D132">
-        <v>0.07324774164174973</v>
+        <v>0.08666865887108327</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3046,13 +3046,13 @@
         <v>5.938687155607711</v>
       </c>
       <c r="D133">
-        <v>0.08522406592938991</v>
+        <v>0.09934077334169816</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>6.174274903449433</v>
       </c>
       <c r="D134">
-        <v>0.073446004982419</v>
+        <v>0.08643274995649064</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>6.25031552766186</v>
       </c>
       <c r="D135">
-        <v>0.07968768285487454</v>
+        <v>0.09220559208992649</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>5.868324232546157</v>
       </c>
       <c r="D136">
-        <v>0.04033294120189371</v>
+        <v>0.04966592461695595</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>5.282490536609718</v>
       </c>
       <c r="D137">
-        <v>0.02374865443396625</v>
+        <v>0.02858610682661132</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>6.425530088059705</v>
       </c>
       <c r="D138">
-        <v>0.02384159475311603</v>
+        <v>0.0297717190135676</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>5.834197476210353</v>
       </c>
       <c r="D139">
-        <v>0.03653224370509944</v>
+        <v>0.04420831761837022</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>6.902694236918079</v>
       </c>
       <c r="D140">
-        <v>0.01743996754509651</v>
+        <v>0.02140612467128441</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>5.996297334001786</v>
       </c>
       <c r="D141">
-        <v>0.02270477058004572</v>
+        <v>0.02757703175050022</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>6.162029134780745</v>
       </c>
       <c r="D142">
-        <v>0.02143213855172765</v>
+        <v>0.02500323311650657</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>5.793760942479344</v>
       </c>
       <c r="D143">
-        <v>0.01458095915399431</v>
+        <v>0.01739428852093012</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>6.491572640332963</v>
       </c>
       <c r="D144">
-        <v>0.01370110214394736</v>
+        <v>0.01640808720688237</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3286,13 +3286,13 @@
         <v>3.780975691505047</v>
       </c>
       <c r="D145">
-        <v>0.01045458032640536</v>
+        <v>0.01226789681595341</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3306,13 +3306,13 @@
         <v>3.364862676845394</v>
       </c>
       <c r="D146">
-        <v>0.01736395190302315</v>
+        <v>0.01977489491040458</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3326,13 +3326,13 @@
         <v>3.383092285118921</v>
       </c>
       <c r="D147">
-        <v>0.01699377413114389</v>
+        <v>0.01934238814188952</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3346,13 +3346,13 @@
         <v>2.598729138474541</v>
       </c>
       <c r="D148">
-        <v>0.01968833621501859</v>
+        <v>0.02328355890088249</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3366,13 +3366,13 @@
         <v>2.328675064932558</v>
       </c>
       <c r="D149">
-        <v>0.02031746406021956</v>
+        <v>0.02415243834281859</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3386,13 +3386,13 @@
         <v>2.271883542122885</v>
       </c>
       <c r="D150">
-        <v>0.01744835363495742</v>
+        <v>0.02108901538762076</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3406,13 +3406,13 @@
         <v>1.626652970611846</v>
       </c>
       <c r="D151">
-        <v>0.0198510749560114</v>
+        <v>0.02457975720274125</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3426,13 +3426,13 @@
         <v>1.229624480524078</v>
       </c>
       <c r="D152">
-        <v>0.02201594391835451</v>
+        <v>0.02694094621391743</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3446,13 +3446,13 @@
         <v>1.18390912807406</v>
       </c>
       <c r="D153">
-        <v>0.02805515925494051</v>
+        <v>0.03429757777685361</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3466,13 +3466,13 @@
         <v>0.9772525647917378</v>
       </c>
       <c r="D154">
-        <v>0.0356897036842654</v>
+        <v>0.04391853708017682</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3486,13 +3486,13 @@
         <v>-0.08027687374637073</v>
       </c>
       <c r="D155">
-        <v>0.04483314010198362</v>
+        <v>0.05391040626970078</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3506,13 +3506,13 @@
         <v>-0.6078101146741108</v>
       </c>
       <c r="D156">
-        <v>0.03023933754606712</v>
+        <v>0.03720259481925904</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3526,13 +3526,13 @@
         <v>-0.2935147144396093</v>
       </c>
       <c r="D157">
-        <v>0.02706049150098045</v>
+        <v>0.03226383254875859</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3546,13 +3546,13 @@
         <v>-0.673833838426374</v>
       </c>
       <c r="D158">
-        <v>0.02303428483260623</v>
+        <v>0.02803988739028567</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3566,13 +3566,13 @@
         <v>-1.000633144429794</v>
       </c>
       <c r="D159">
-        <v>0.02112074399023001</v>
+        <v>0.02560214864130949</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3586,13 +3586,13 @@
         <v>-1.410151212864269</v>
       </c>
       <c r="D160">
-        <v>0.01994554702765674</v>
+        <v>0.02393167811817122</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3606,13 +3606,13 @@
         <v>-2.420553593696483</v>
       </c>
       <c r="D161">
-        <v>0.01865944617458782</v>
+        <v>0.02171762581363939</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3626,13 +3626,13 @@
         <v>-2.506439737840217</v>
       </c>
       <c r="D162">
-        <v>0.01276865999734073</v>
+        <v>0.01528186392117735</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3646,13 +3646,13 @@
         <v>-2.260394334740956</v>
       </c>
       <c r="D163">
-        <v>0.01884395282417228</v>
+        <v>0.02186460688134034</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3666,13 +3666,13 @@
         <v>-2.467295652440508</v>
       </c>
       <c r="D164">
-        <v>0.01562858086128432</v>
+        <v>0.01841744546320415</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3686,13 +3686,13 @@
         <v>-2.887744484134615</v>
       </c>
       <c r="D165">
-        <v>0.01748042129772814</v>
+        <v>0.0199164805887971</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3706,13 +3706,13 @@
         <v>-3.060513123834891</v>
       </c>
       <c r="D166">
-        <v>0.01581125228634695</v>
+        <v>0.01827751348121827</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3726,13 +3726,13 @@
         <v>-2.813698223248863</v>
       </c>
       <c r="D167">
-        <v>0.01746905632257626</v>
+        <v>0.02038695731405132</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3746,13 +3746,13 @@
         <v>-2.364493893513509</v>
       </c>
       <c r="D168">
-        <v>0.01597818816708255</v>
+        <v>0.01899081640310337</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3766,13 +3766,13 @@
         <v>-2.076325333651233</v>
       </c>
       <c r="D169">
-        <v>0.01877560703302485</v>
+        <v>0.02202164701311141</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3786,13 +3786,13 @@
         <v>-2.191492375359496</v>
       </c>
       <c r="D170">
-        <v>0.02021567085846928</v>
+        <v>0.02332112107925</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3806,13 +3806,13 @@
         <v>-1.460830058672714</v>
       </c>
       <c r="D171">
-        <v>0.01900576593166967</v>
+        <v>0.02229886548396151</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3826,13 +3826,13 @@
         <v>-0.3770736340553927</v>
       </c>
       <c r="D172">
-        <v>0.01452415449602856</v>
+        <v>0.01771361937904171</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3846,13 +3846,13 @@
         <v>-0.4560773572174913</v>
       </c>
       <c r="D173">
-        <v>0.03118885099124793</v>
+        <v>0.0371029303856328</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3866,13 +3866,13 @@
         <v>-0.4499029370004441</v>
       </c>
       <c r="D174">
-        <v>0.03040306200932077</v>
+        <v>0.03615348788906884</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3886,13 +3886,13 @@
         <v>0.0114465237907016</v>
       </c>
       <c r="D175">
-        <v>0.03801291115651848</v>
+        <v>0.04633806126841774</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3906,13 +3906,13 @@
         <v>0.3333434389040031</v>
       </c>
       <c r="D176">
-        <v>0.05791316067208666</v>
+        <v>0.06804219791291934</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3926,13 +3926,13 @@
         <v>0.1465100639945608</v>
       </c>
       <c r="D177">
-        <v>0.05719139203976588</v>
+        <v>0.06703089410029138</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3946,13 +3946,13 @@
         <v>0.7652833491385063</v>
       </c>
       <c r="D178">
-        <v>0.04255529403161419</v>
+        <v>0.05083647457167595</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3966,13 +3966,13 @@
         <v>1.745797398720569</v>
       </c>
       <c r="D179">
-        <v>0.02140043221829336</v>
+        <v>0.02607621734345717</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3986,13 +3986,13 @@
         <v>1.833568375566251</v>
       </c>
       <c r="D180">
-        <v>0.02085069001083015</v>
+        <v>0.02530023917133213</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4006,13 +4006,13 @@
         <v>1.16578507976059</v>
       </c>
       <c r="D181">
-        <v>0.0257783737970842</v>
+        <v>0.03047572718270303</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4026,13 +4026,13 @@
         <v>2.488256411422269</v>
       </c>
       <c r="D182">
-        <v>0.01361591044158793</v>
+        <v>0.01646727733346926</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4046,13 +4046,13 @@
         <v>2.205302113997202</v>
       </c>
       <c r="D183">
-        <v>0.01469933190083969</v>
+        <v>0.01747236015661283</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4066,13 +4066,13 @@
         <v>3.311352029753257</v>
       </c>
       <c r="D184">
-        <v>0.01565375612536041</v>
+        <v>0.01823826588363819</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4086,13 +4086,13 @@
         <v>3.14548024799304</v>
       </c>
       <c r="D185">
-        <v>0.01841166803791839</v>
+        <v>0.02091065139047833</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4106,13 +4106,13 @@
         <v>3.600881682077903</v>
       </c>
       <c r="D186">
-        <v>0.01376293492196527</v>
+        <v>0.01559860528528796</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4126,13 +4126,13 @@
         <v>6.152175904402378</v>
       </c>
       <c r="D187">
-        <v>0.08481685843633378</v>
+        <v>0.0986772101841156</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4146,13 +4146,13 @@
         <v>6.474351185706086</v>
       </c>
       <c r="D188">
-        <v>0.06409062960930732</v>
+        <v>0.07695294308769533</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4166,13 +4166,13 @@
         <v>5.686765585774793</v>
       </c>
       <c r="D189">
-        <v>0.0621801916469101</v>
+        <v>0.07432908765921541</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4186,13 +4186,13 @@
         <v>6.300737626041792</v>
       </c>
       <c r="D190">
-        <v>0.07834456449869255</v>
+        <v>0.09058062903166465</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4206,13 +4206,13 @@
         <v>6.563794417316709</v>
       </c>
       <c r="D191">
-        <v>0.06143912486346147</v>
+        <v>0.07331468106415398</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4226,13 +4226,13 @@
         <v>5.7116497319634</v>
       </c>
       <c r="D192">
-        <v>0.07511725688200559</v>
+        <v>0.08816428547758939</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4246,13 +4246,13 @@
         <v>5.654008610052462</v>
       </c>
       <c r="D193">
-        <v>0.05973642790696949</v>
+        <v>0.0718067714068038</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4266,13 +4266,13 @@
         <v>5.900235459177908</v>
       </c>
       <c r="D194">
-        <v>0.07056733354774478</v>
+        <v>0.08330211566613185</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4286,13 +4286,13 @@
         <v>6.081628851278024</v>
       </c>
       <c r="D195">
-        <v>0.07033370494322605</v>
+        <v>0.08311316458714005</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4306,13 +4306,13 @@
         <v>6.163592696202992</v>
       </c>
       <c r="D196">
-        <v>0.06086491012726005</v>
+        <v>0.07314506661857324</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4326,13 +4326,13 @@
         <v>0.4058565388130928</v>
       </c>
       <c r="D197">
-        <v>0.04979994303075647</v>
+        <v>0.05876807086888668</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4346,13 +4346,13 @@
         <v>0.4245433175682999</v>
       </c>
       <c r="D198">
-        <v>0.05738769072193649</v>
+        <v>0.0675027301527457</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4366,13 +4366,13 @@
         <v>0.3800739450230795</v>
       </c>
       <c r="D199">
-        <v>0.05896313776429268</v>
+        <v>0.06925454744897336</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4386,13 +4386,13 @@
         <v>0.3667568633807153</v>
       </c>
       <c r="D200">
-        <v>0.03812074493871104</v>
+        <v>0.0463451483218239</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4406,13 +4406,13 @@
         <v>0.3677548920682794</v>
       </c>
       <c r="D201">
-        <v>0.05276453512076578</v>
+        <v>0.06276958038726566</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4426,13 +4426,13 @@
         <v>0.7087079359479301</v>
       </c>
       <c r="D202">
-        <v>0.04260542535184885</v>
+        <v>0.05230534829507712</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4446,13 +4446,13 @@
         <v>0.03481869446230938</v>
       </c>
       <c r="D203">
-        <v>0.05413521640732517</v>
+        <v>0.06350299604398039</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4466,13 +4466,13 @@
         <v>0.4691404013252027</v>
       </c>
       <c r="D204">
-        <v>0.04962000958034501</v>
+        <v>0.05893739140821009</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4486,13 +4486,13 @@
         <v>0.7056882104994807</v>
       </c>
       <c r="D205">
-        <v>0.04913708009533529</v>
+        <v>0.05848669733823024</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4506,13 +4506,13 @@
         <v>-0.02545445683708017</v>
       </c>
       <c r="D206">
-        <v>0.0511560215855683</v>
+        <v>0.0602533648980932</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4526,13 +4526,13 @@
         <v>0.6168885512081423</v>
       </c>
       <c r="D207">
-        <v>0.0426370884665847</v>
+        <v>0.05104906013582536</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
